--- a/biology/Médecine/1417_en_santé_et_médecine/1417_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1417_en_santé_et_médecine/1417_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1417_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1417_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1417 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1417_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1417_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation par Jacques Miton, curé d'Is en Bourgogne, du premier hôpital de la ville[1].
-Le médecin juif Mosse Marnan de Marseille[2] et les chirurgiens juifs Bellant de Tarascon[3] et Benoît Canet (fl. 1401-1417) d'Arles[3] soignent Louis II, roi de Naples, pour la maladie de la vessie dont il meurt.
-1414[4] ou 1417-1418[5] : une épidémie de danse de Saint-Guy se répand depuis Strasbourg jusqu'en Bavière.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation par Jacques Miton, curé d'Is en Bourgogne, du premier hôpital de la ville.
+Le médecin juif Mosse Marnan de Marseille et les chirurgiens juifs Bellant de Tarascon et Benoît Canet (fl. 1401-1417) d'Arles soignent Louis II, roi de Naples, pour la maladie de la vessie dont il meurt.
+1414 ou 1417-1418 : une épidémie de danse de Saint-Guy se répand depuis Strasbourg jusqu'en Bavière.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1417_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1417_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1411-1417 : Alonso Chirino (es) (c.1365-c.1429), médecin de Jean II, roi de Castille, rédige deux traités en castillan : le Miroir de la médecine (Espejo de la Medicina) et le Moindre mal de la médecine (Menor daño de la Medicina[6]).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1411-1417 : Alonso Chirino (es) (c.1365-c.1429), médecin de Jean II, roi de Castille, rédige deux traités en castillan : le Miroir de la médecine (Espejo de la Medicina) et le Moindre mal de la médecine (Menor daño de la Medicina).</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1417_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1417_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,20 +589,22 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Albert Loison, précepteur et médecin du dauphin Jean, qu'il soigne à Paris et Compiègne dans sa dernière maladie[3].
-Fl. Jean de Sept Saulz, barbier à Reims ; il examine une personne suspecte de lèpre[7].
-Fl. Jean Simon, maître ès arts et licencié en médecine ; consulté à Vienne comme astrologue, avant l'élection du successeur de Jean XXIII[7].
-1376-1417 : fl. Abraham Vitalis de Milhano, médecin juif d'Avignon d'une famille originaire de Millau ; en 1376, il succède à son père Vital de Bésiers ; il devient conseiller de la communauté juive en 1417[3].
-1388-1417 : fl. Jean de Parme, médecin de Philippe le Hardi, duc de Bourgogne ;  en 1388 et 1417, trois fils qu'il a de Guiotte, sa servante, obtiennent des lettres de légitimation[7].
-1401-1417 : fl. Jean de Vouziers, chirurgien juré de la ville de Reims[7].
-1411-1417 : fl. Jean de Lugduno, licencié en médecine, étudiant en droit à Paris, réputé dives practicus, bene hereditatus ; en 1417, il obtient réparation de « Bourguignons » qui l'avaient attaqué et grièvement blessé en 1411[7].
-1414-1417 : fl. Jean de Monteau, fils de François de Monteau, médecin de Dijon d'origine milanaise, reçu docteur en médecine à Pavie en 1414, revenu à Dijon en 1417[7].
-1415-1417 : fl. Michel de Discipatis, prêtre apostat, à Chambéry en 1415, condamné à la prison à vie pour avoir extorqué de l'argent en se donnant pour astrologue et médecin[7].
-1417-1428 : fl. Monet Michiel, maître barbier à Lyon[7].
-1417-1430 : fl. Arnold de Tricht, recteur de l'université de Rostock, professeur de médecine à Erfurt[3].
-1417-1453 : fl. Jean de Lacoste, barbier, à Mézières, de Charles de Bourgogne, comte de Rethel[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Albert Loison, précepteur et médecin du dauphin Jean, qu'il soigne à Paris et Compiègne dans sa dernière maladie.
+Fl. Jean de Sept Saulz, barbier à Reims ; il examine une personne suspecte de lèpre.
+Fl. Jean Simon, maître ès arts et licencié en médecine ; consulté à Vienne comme astrologue, avant l'élection du successeur de Jean XXIII.
+1376-1417 : fl. Abraham Vitalis de Milhano, médecin juif d'Avignon d'une famille originaire de Millau ; en 1376, il succède à son père Vital de Bésiers ; il devient conseiller de la communauté juive en 1417.
+1388-1417 : fl. Jean de Parme, médecin de Philippe le Hardi, duc de Bourgogne ;  en 1388 et 1417, trois fils qu'il a de Guiotte, sa servante, obtiennent des lettres de légitimation.
+1401-1417 : fl. Jean de Vouziers, chirurgien juré de la ville de Reims.
+1411-1417 : fl. Jean de Lugduno, licencié en médecine, étudiant en droit à Paris, réputé dives practicus, bene hereditatus ; en 1417, il obtient réparation de « Bourguignons » qui l'avaient attaqué et grièvement blessé en 1411.
+1414-1417 : fl. Jean de Monteau, fils de François de Monteau, médecin de Dijon d'origine milanaise, reçu docteur en médecine à Pavie en 1414, revenu à Dijon en 1417.
+1415-1417 : fl. Michel de Discipatis, prêtre apostat, à Chambéry en 1415, condamné à la prison à vie pour avoir extorqué de l'argent en se donnant pour astrologue et médecin.
+1417-1428 : fl. Monet Michiel, maître barbier à Lyon.
+1417-1430 : fl. Arnold de Tricht, recteur de l'université de Rostock, professeur de médecine à Erfurt.
+1417-1453 : fl. Jean de Lacoste, barbier, à Mézières, de Charles de Bourgogne, comte de Rethel.</t>
         </is>
       </c>
     </row>
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1417_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1417_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,10 +632,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Henri Carpentin (né à une date inconnue), clerc et médecin, maître régent à l'université de Paris, au service de Philippe le Hardi, duc de Bourgogne[3].
-18 mai : Gilabert Jofré (en) (né en 1350), mercédaire espagnol, fondateur à Valence, en 1409, du premier asile d'aliénés du monde, l'hôpital Sainte-Marie des Innocents (Hospital de Santa Maria de los inocentes[8]).</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Henri Carpentin (né à une date inconnue), clerc et médecin, maître régent à l'université de Paris, au service de Philippe le Hardi, duc de Bourgogne.
+18 mai : Gilabert Jofré (en) (né en 1350), mercédaire espagnol, fondateur à Valence, en 1409, du premier asile d'aliénés du monde, l'hôpital Sainte-Marie des Innocents (Hospital de Santa Maria de los inocentes).</t>
         </is>
       </c>
     </row>
